--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Notch4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Psen1-Notch4.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H2">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I2">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J2">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N2">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O2">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P2">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q2">
-        <v>738.909114972264</v>
+        <v>282.5335665163555</v>
       </c>
       <c r="R2">
-        <v>6650.182034750376</v>
+        <v>2542.8020986472</v>
       </c>
       <c r="S2">
-        <v>0.3754957364029403</v>
+        <v>0.2039702513963649</v>
       </c>
       <c r="T2">
-        <v>0.3754957364029403</v>
+        <v>0.2039702513963649</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H3">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I3">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J3">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P3">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q3">
-        <v>41.833703130772</v>
+        <v>14.95124379031111</v>
       </c>
       <c r="R3">
-        <v>376.5033281769481</v>
+        <v>134.5611941128</v>
       </c>
       <c r="S3">
-        <v>0.02125887588237541</v>
+        <v>0.0107937934320507</v>
       </c>
       <c r="T3">
-        <v>0.02125887588237541</v>
+        <v>0.0107937934320507</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.008411</v>
+        <v>8.937933333333332</v>
       </c>
       <c r="H4">
-        <v>75.025233</v>
+        <v>26.8138</v>
       </c>
       <c r="I4">
-        <v>0.4156829172908308</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="J4">
-        <v>0.4156829172908309</v>
+        <v>0.2302024600837126</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N4">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P4">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q4">
-        <v>37.247552351811</v>
+        <v>21.38483672779999</v>
       </c>
       <c r="R4">
-        <v>335.227971166299</v>
+        <v>192.4635305501999</v>
       </c>
       <c r="S4">
-        <v>0.01892830500551524</v>
+        <v>0.01543841525529704</v>
       </c>
       <c r="T4">
-        <v>0.01892830500551524</v>
+        <v>0.01543841525529703</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>61.488057</v>
       </c>
       <c r="I5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J5">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N5">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O5">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P5">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q5">
-        <v>605.5840676860561</v>
+        <v>647.8917588096787</v>
       </c>
       <c r="R5">
-        <v>5450.256609174504</v>
+        <v>5831.025829287108</v>
       </c>
       <c r="S5">
-        <v>0.3077431727962907</v>
+        <v>0.4677343175590187</v>
       </c>
       <c r="T5">
-        <v>0.3077431727962906</v>
+        <v>0.4677343175590186</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>61.488057</v>
       </c>
       <c r="I6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J6">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P6">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q6">
         <v>34.28543997492134</v>
@@ -818,10 +818,10 @@
         <v>308.568959774292</v>
       </c>
       <c r="S6">
-        <v>0.01742303115555035</v>
+        <v>0.0247517839991407</v>
       </c>
       <c r="T6">
-        <v>0.01742303115555035</v>
+        <v>0.0247517839991407</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>61.488057</v>
       </c>
       <c r="I7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241245</v>
       </c>
       <c r="J7">
-        <v>0.3406791807271681</v>
+        <v>0.5278886986241244</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N7">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P7">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q7">
-        <v>30.526791194619</v>
+        <v>49.038631587267</v>
       </c>
       <c r="R7">
-        <v>274.741120751571</v>
+        <v>441.3476842854029</v>
       </c>
       <c r="S7">
-        <v>0.01551297677532713</v>
+        <v>0.03540259706596505</v>
       </c>
       <c r="T7">
-        <v>0.01551297677532712</v>
+        <v>0.03540259706596504</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H8">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I8">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J8">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.546424</v>
+        <v>31.61061466666667</v>
       </c>
       <c r="N8">
-        <v>88.63927200000001</v>
+        <v>94.831844</v>
       </c>
       <c r="O8">
-        <v>0.9033225104610835</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="P8">
-        <v>0.9033225104610834</v>
+        <v>0.8860472269592234</v>
       </c>
       <c r="Q8">
-        <v>433.0855540095841</v>
+        <v>296.9011177259333</v>
       </c>
       <c r="R8">
-        <v>3897.769986086257</v>
+        <v>2672.1100595334</v>
       </c>
       <c r="S8">
-        <v>0.2200836012618526</v>
+        <v>0.2143426580038399</v>
       </c>
       <c r="T8">
-        <v>0.2200836012618526</v>
+        <v>0.2143426580038399</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H9">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I9">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J9">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>5.018356000000001</v>
       </c>
       <c r="O9">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="P9">
-        <v>0.05114204841740398</v>
+        <v>0.04688826274109129</v>
       </c>
       <c r="Q9">
-        <v>24.51935174374312</v>
+        <v>15.71155260406667</v>
       </c>
       <c r="R9">
-        <v>220.6741656936881</v>
+        <v>141.4039734366</v>
       </c>
       <c r="S9">
-        <v>0.01246014137947822</v>
+        <v>0.01134268530989989</v>
       </c>
       <c r="T9">
-        <v>0.01246014137947822</v>
+        <v>0.01134268530989989</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.65779933333333</v>
+        <v>9.392449999999998</v>
       </c>
       <c r="H10">
-        <v>43.973398</v>
+        <v>28.17735</v>
       </c>
       <c r="I10">
-        <v>0.243637901982001</v>
+        <v>0.241908841292163</v>
       </c>
       <c r="J10">
-        <v>0.2436379019820011</v>
+        <v>0.2419088412921629</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.489401</v>
+        <v>2.392593</v>
       </c>
       <c r="N10">
-        <v>4.468203</v>
+        <v>7.177778999999999</v>
       </c>
       <c r="O10">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968528</v>
       </c>
       <c r="P10">
-        <v>0.04553544112151264</v>
+        <v>0.06706451029968527</v>
       </c>
       <c r="Q10">
-        <v>21.831340984866</v>
+        <v>22.47231012284999</v>
       </c>
       <c r="R10">
-        <v>196.482068863794</v>
+        <v>202.25079110565</v>
       </c>
       <c r="S10">
-        <v>0.01109415934067028</v>
+        <v>0.0162234979784232</v>
       </c>
       <c r="T10">
-        <v>0.01109415934067028</v>
+        <v>0.01622349797842319</v>
       </c>
     </row>
   </sheetData>
